--- a/biology/Médecine/Muscle_pelvi-trochantérien/Muscle_pelvi-trochantérien.xlsx
+++ b/biology/Médecine/Muscle_pelvi-trochantérien/Muscle_pelvi-trochantérien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_pelvi-trochant%C3%A9rien</t>
+          <t>Muscle_pelvi-trochantérien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les muscles pelvi-trochantériens sont huit muscles du membre pelvien qui appartiennent plus précisément aux muscles dorsaux et latéraux de la ceinture pelvienne, qui rattachent le membre au tronc.
 Ils sont placés en profondeur sur le versant dorsal de l'articulation coxo-fémorale, ce qui leur confère leur principale fonction sur la hanche : la rotation latérale. Ils s'insèrent à différents endroits du bassin osseux ou pelvis, mais se terminent tous sur le grand trochanter du fémur, d'où leur nom.
